--- a/FileReader/HomeOfficeTest/test-vehicle.xlsx
+++ b/FileReader/HomeOfficeTest/test-vehicle.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28308"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,22 +19,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Nissan</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>DG10 HGE</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>VO06 BZX</t>
+  </si>
+  <si>
+    <t>FORD</t>
+  </si>
+  <si>
+    <t>BLUE</t>
+  </si>
+  <si>
+    <t>WP14 MYJ</t>
+  </si>
+  <si>
+    <t>BMW</t>
+  </si>
+  <si>
+    <t>RED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -401,22 +410,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
